--- a/biology/Zoologie/Chlosyne_acastus/Chlosyne_acastus.xlsx
+++ b/biology/Zoologie/Chlosyne_acastus/Chlosyne_acastus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne acastus est une espèce de lépidoptères de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Chlosyne.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne acastus a été nommée par William Henry Edwards en 1874.
-Synonymes : Melitaea acastus Edwards, 1874; Lemonias acastus ; Dyar, 1903[1].
-Sous-espèces
-Chlosyne acastus neumoegeni (Skinner, 1895)
-Chlosyne acastus sabina (Wright, 1905)[1].
-Noms vernaculaires
-Chlosyne acastus se nomme en anglais Sagebrush Checkerspot et la sous-espèce Chlosyne acastus neumoegeni  se nomme Desert Checkerspot[1].
+Synonymes : Melitaea acastus Edwards, 1874; Lemonias acastus ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -545,17 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chlosyne acastus est un papillon orange de taille moyenne. Son envergure varie entre 39 et 57 mm
-Le dessus présente des lignes de damiers orange entourés de marron avec sur le bord des chevrons blancs.
-Le revers des antérieures est orange bordé d'une ligne marron, d'une bande orange et d'une bande de chevrons blancs alors que les postérieures sont à damiers blancs limités de marron avec une bordure et quelques damiers orange[2].
-Chenille
-La chenille est noire, ornée de points crème, de croissants orange et d'épines de couleur noire[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chlosyne acastus neumoegeni (Skinner, 1895)
+Chlosyne acastus sabina (Wright, 1905).</t>
         </is>
       </c>
     </row>
@@ -580,16 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole de mai à début septembre au Canada[3].
-Chlosyne acastus hiberne au troisième ou au quatrième stade de la chenille[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont Chrysothamnus viscidiflorus, Acamptopappus sphaerocephalus, Pyrrocoma crocea et des Machaeranthera, dont Machaeranthera tortifolia[1],[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne acastus se nomme en anglais Sagebrush Checkerspot et la sous-espèce Chlosyne acastus neumoegeni  se nomme Desert Checkerspot.
 </t>
         </is>
       </c>
@@ -615,16 +628,235 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne acastus est un papillon orange de taille moyenne. Son envergure varie entre 39 et 57 mm
+Le dessus présente des lignes de damiers orange entourés de marron avec sur le bord des chevrons blancs.
+Le revers des antérieures est orange bordé d'une ligne marron, d'une bande orange et d'une bande de chevrons blancs alors que les postérieures sont à damiers blancs limités de marron avec une bordure et quelques damiers orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est noire, ornée de points crème, de croissants orange et d'épines de couleur noire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole de mai à début septembre au Canada.
+Chlosyne acastus hiberne au troisième ou au quatrième stade de la chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont Chrysothamnus viscidiflorus, Acamptopappus sphaerocephalus, Pyrrocoma crocea et des Machaeranthera, dont Machaeranthera tortifolia,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans tout l'ouest de l'Amérique du Nord, au Canada dans le sud de l'Alberta et de la Saskatchewan et aux USA surtout dans l’Utah, le Nevada, le Montana, l'Arizona et la Californie[1],[2].
-Biotope
-Il est souvent présent dans les canyons secs[3].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans tout l'ouest de l'Amérique du Nord, au Canada dans le sud de l'Alberta et de la Saskatchewan et aux USA surtout dans l’Utah, le Nevada, le Montana, l'Arizona et la Californie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est souvent présent dans les canyons secs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_acastus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
